--- a/Documentation/APIEndpoints.xlsx
+++ b/Documentation/APIEndpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows10\OneDrive\Desktop\Market Place Hackathon\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ABB318-C9AD-40F9-860A-FA9CCA44CCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371A257-B38B-4626-A1F6-0875A6BF7E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="136" bestFit="1" customWidth="1"/>
   </cols>
